--- a/workdoc/Bringup_oppo_custom/BringUp OPPO Display OR-DR-DS.xlsx
+++ b/workdoc/Bringup_oppo_custom/BringUp OPPO Display OR-DR-DS.xlsx
@@ -14,15 +14,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>包需求</t>
-  </si>
-  <si>
-    <t>设计需求</t>
-  </si>
-  <si>
-    <t>设计分析</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+  <si>
+    <t>包需求（OR）</t>
+  </si>
+  <si>
+    <t>设计需求(DR)</t>
+  </si>
+  <si>
+    <t>设计实现(DS)</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>需要分类</t>
+  </si>
+  <si>
+    <t>关键需求描述</t>
+  </si>
+  <si>
+    <t>使用场景</t>
+  </si>
+  <si>
+    <t>市场价值</t>
+  </si>
+  <si>
+    <t>功能分类</t>
+  </si>
+  <si>
+    <t>设计描述</t>
+  </si>
+  <si>
+    <t>需求规格</t>
+  </si>
+  <si>
+    <t>设计规格</t>
+  </si>
+  <si>
+    <t>支持设备</t>
+  </si>
+  <si>
+    <t>用户</t>
+  </si>
+  <si>
+    <t>投屏显示</t>
+  </si>
+  <si>
+    <t>移动端实现投屏到VR眼镜</t>
+  </si>
+  <si>
+    <t>增加用户娱乐体验</t>
+  </si>
+  <si>
+    <t>软件</t>
+  </si>
+  <si>
+    <t>手机</t>
   </si>
 </sst>
 </file>
@@ -31,11 +79,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,43 +93,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,61 +221,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,40 +235,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +245,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -216,175 +281,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,16 +485,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,26 +520,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,156 +539,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,26 +1050,115 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="4.77777777777778" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="24.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="14.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="16.4444444444444" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
